--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-17.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G565"/>
+  <dimension ref="A1:G507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12239,10 +12239,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="449">
@@ -12276,10 +12274,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G449" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G449" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="450">
@@ -12313,10 +12309,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G450" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G450" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -12350,10 +12344,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G451" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="452">
@@ -12387,10 +12379,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="G452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="453">
@@ -12420,10 +12410,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="G453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="454">
@@ -12449,10 +12437,8 @@
       </c>
       <c r="E454" t="inlineStr"/>
       <c r="F454" t="inlineStr"/>
-      <c r="G454" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="455">
@@ -12482,10 +12468,8 @@
         </is>
       </c>
       <c r="F455" t="inlineStr"/>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="456">
@@ -12511,10 +12495,8 @@
       </c>
       <c r="E456" t="inlineStr"/>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="457">
@@ -12540,10 +12522,8 @@
       </c>
       <c r="E457" t="inlineStr"/>
       <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="458">
@@ -12569,10 +12549,8 @@
       </c>
       <c r="E458" t="inlineStr"/>
       <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="459">
@@ -12598,10 +12576,8 @@
       </c>
       <c r="E459" t="inlineStr"/>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="460">
@@ -12619,10 +12595,8 @@
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr"/>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G460" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="461">
@@ -12640,10 +12614,8 @@
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr"/>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G461" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="462">
@@ -12669,118 +12641,100 @@
       </c>
       <c r="E462" t="inlineStr"/>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B463" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
+        </is>
+      </c>
       <c r="C463" t="inlineStr"/>
-      <c r="D463" t="inlineStr"/>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>0.373M</t>
+        </is>
+      </c>
       <c r="E463" t="inlineStr"/>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr"/>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
         </is>
       </c>
       <c r="C464" t="inlineStr"/>
       <c r="D464" t="inlineStr">
         <is>
-          <t>256K</t>
-        </is>
-      </c>
-      <c r="E464" t="inlineStr">
-        <is>
-          <t>170K</t>
-        </is>
-      </c>
-      <c r="F464" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+          <t>0.16M</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr"/>
+      <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C465" t="inlineStr"/>
       <c r="D465" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E465" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F465" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>4.205%</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr"/>
+      <c r="F465" t="inlineStr"/>
       <c r="G465" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C466" t="inlineStr"/>
-      <c r="D466" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F466" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D466" t="inlineStr"/>
+      <c r="E466" t="inlineStr"/>
+      <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr">
         <is>
           <t>2</t>
@@ -12790,57 +12744,49 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C467" t="inlineStr"/>
       <c r="D467" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E467" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F467" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>4.68%</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr"/>
+      <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Monthly Budget StatementJAN</t>
         </is>
       </c>
       <c r="C468" t="inlineStr"/>
       <c r="D468" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>$-87B</t>
         </is>
       </c>
       <c r="E468" t="inlineStr"/>
       <c r="F468" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>$-93.0B</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
@@ -12852,35 +12798,15 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 13 2025</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr"/>
       <c r="C469" t="inlineStr"/>
-      <c r="D469" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D469" t="inlineStr"/>
+      <c r="E469" t="inlineStr"/>
+      <c r="F469" t="inlineStr"/>
+      <c r="G469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -12890,24 +12816,24 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -12919,28 +12845,24 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Core PPI MoMJAN</t>
         </is>
       </c>
       <c r="C471" t="inlineStr"/>
       <c r="D471" t="inlineStr">
         <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="E471" t="inlineStr">
-        <is>
-          <t>-2K</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr"/>
       <c r="F471" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12952,28 +12874,24 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Initial Jobless ClaimsFEB/08</t>
         </is>
       </c>
       <c r="C472" t="inlineStr"/>
       <c r="D472" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>141K</t>
-        </is>
-      </c>
+          <t>219K</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr"/>
       <c r="F472" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>215.0K</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -12985,19 +12903,19 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>Continuing Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="C473" t="inlineStr"/>
       <c r="D473" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>1886K</t>
         </is>
       </c>
       <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>1875.0K</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
@@ -13009,78 +12927,82 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>09:25 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Core PPI YoYJAN</t>
         </is>
       </c>
       <c r="C474" t="inlineStr"/>
-      <c r="D474" t="inlineStr"/>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="E474" t="inlineStr"/>
-      <c r="F474" t="inlineStr"/>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>Jobless Claims 4-week AverageFEB/08</t>
         </is>
       </c>
       <c r="C475" t="inlineStr"/>
       <c r="D475" t="inlineStr">
         <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E475" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
+          <t>216.75K</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr"/>
       <c r="F475" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>216.0K</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>PPIJAN</t>
         </is>
       </c>
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>146.842</t>
         </is>
       </c>
       <c r="E476" t="inlineStr"/>
       <c r="F476" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>147.2</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -13092,28 +13014,24 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
         </is>
       </c>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="inlineStr">
         <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E477" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr"/>
       <c r="F477" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
@@ -13125,28 +13043,24 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
         </is>
       </c>
       <c r="C478" t="inlineStr"/>
       <c r="D478" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E478" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr"/>
       <c r="F478" t="inlineStr">
         <is>
-          <t>74.3</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
@@ -13158,12 +13072,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="C479" t="inlineStr"/>
@@ -13187,30 +13101,22 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C480" t="inlineStr"/>
       <c r="D480" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E480" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F480" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+          <t>-174Bcf</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr"/>
+      <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr">
         <is>
           <t>3</t>
@@ -13220,12 +13126,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C481" t="inlineStr"/>
@@ -13234,27 +13140,23 @@
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C482" t="inlineStr"/>
-      <c r="D482" t="inlineStr">
-        <is>
-          <t>479</t>
-        </is>
-      </c>
+      <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr"/>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr">
@@ -13266,18 +13168,18 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>15-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C483" t="inlineStr"/>
       <c r="D483" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>6.05%</t>
         </is>
       </c>
       <c r="E483" t="inlineStr"/>
@@ -13291,30 +13193,22 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>30-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C484" t="inlineStr"/>
       <c r="D484" t="inlineStr">
         <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="E484" t="inlineStr">
-        <is>
-          <t>$12.35B</t>
-        </is>
-      </c>
-      <c r="F484" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
+          <t>6.89%</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr"/>
+      <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr">
         <is>
           <t>3</t>
@@ -13322,16 +13216,20 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr"/>
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>01:00 PM</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMJAN</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C485" t="inlineStr"/>
       <c r="D485" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>4.913%</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -13343,16 +13241,20 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr"/>
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>04:30 PM</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJAN</t>
+          <t>Fed Balance SheetFEB/12</t>
         </is>
       </c>
       <c r="C486" t="inlineStr"/>
       <c r="D486" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$6.81T</t>
         </is>
       </c>
       <c r="E486" t="inlineStr"/>
@@ -13366,7 +13268,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
+          <t>Friday February 14 2025</t>
         </is>
       </c>
       <c r="B487" t="inlineStr"/>
@@ -13379,142 +13281,198 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMJAN</t>
+        </is>
+      </c>
       <c r="C488" t="inlineStr"/>
-      <c r="D488" t="inlineStr"/>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E488" t="inlineStr"/>
-      <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr"/>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B489" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Export Prices MoMJAN</t>
+        </is>
+      </c>
       <c r="C489" t="inlineStr"/>
-      <c r="D489" t="inlineStr"/>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E489" t="inlineStr"/>
-      <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Import Prices MoMJAN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr"/>
       <c r="D490" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E490" t="inlineStr"/>
       <c r="F490" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Retail Sales Control Group MoMJAN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr"/>
       <c r="D491" t="inlineStr">
         <is>
-          <t>4.22%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
-      <c r="F491" t="inlineStr"/>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Retail Sales Ex Autos MoMJAN</t>
         </is>
       </c>
       <c r="C492" t="inlineStr"/>
       <c r="D492" t="inlineStr">
         <is>
-          <t>4.155%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
-      <c r="F492" t="inlineStr"/>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Tuesday February 11 2025</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Export Prices YoYJAN</t>
+        </is>
+      </c>
       <c r="C493" t="inlineStr"/>
-      <c r="D493" t="inlineStr"/>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="E493" t="inlineStr"/>
-      <c r="F493" t="inlineStr"/>
-      <c r="G493" t="inlineStr"/>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexJAN</t>
+          <t>Import Prices YoYJAN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr"/>
       <c r="D494" t="inlineStr">
         <is>
-          <t>105.1</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E494" t="inlineStr"/>
       <c r="F494" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
@@ -13526,43 +13484,55 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>08:50 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
         </is>
       </c>
       <c r="C495" t="inlineStr"/>
-      <c r="D495" t="inlineStr"/>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E495" t="inlineStr"/>
-      <c r="F495" t="inlineStr"/>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/08</t>
+          <t>Retail Sales YoYJAN</t>
         </is>
       </c>
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
-      <c r="F496" t="inlineStr"/>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="G496" t="inlineStr">
         <is>
           <t>3</t>
@@ -13572,43 +13542,55 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Total Household DebtQ4</t>
+          <t>Industrial Production MoMJAN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>$17.9T</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
-      <c r="F497" t="inlineStr"/>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr"/>
-      <c r="D498" t="inlineStr"/>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="E498" t="inlineStr"/>
-      <c r="F498" t="inlineStr"/>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>77.4%</t>
+        </is>
+      </c>
       <c r="G498" t="inlineStr">
         <is>
           <t>3</t>
@@ -13618,22 +13600,26 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Industrial Production YoYJAN</t>
         </is>
       </c>
       <c r="C499" t="inlineStr"/>
       <c r="D499" t="inlineStr">
         <is>
-          <t>4.332%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E499" t="inlineStr"/>
-      <c r="F499" t="inlineStr"/>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="G499" t="inlineStr">
         <is>
           <t>3</t>
@@ -13643,60 +13629,84 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeFEB/07</t>
+          <t>Manufacturing Production MoMJAN</t>
         </is>
       </c>
       <c r="C500" t="inlineStr"/>
       <c r="D500" t="inlineStr">
         <is>
-          <t>5.025M</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="E500" t="inlineStr"/>
-      <c r="F500" t="inlineStr"/>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Wednesday February 12 2025</t>
-        </is>
-      </c>
-      <c r="B501" t="inlineStr"/>
+          <t>09:15 AM</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Manufacturing Production YoYJAN</t>
+        </is>
+      </c>
       <c r="C501" t="inlineStr"/>
-      <c r="D501" t="inlineStr"/>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="E501" t="inlineStr"/>
-      <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr"/>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateFEB/07</t>
+          <t>Business Inventories MoMDEC</t>
         </is>
       </c>
       <c r="C502" t="inlineStr"/>
       <c r="D502" t="inlineStr">
         <is>
-          <t>6.97%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E502" t="inlineStr"/>
-      <c r="F502" t="inlineStr"/>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="G502" t="inlineStr">
         <is>
           <t>2</t>
@@ -13706,22 +13716,30 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsFEB/07</t>
+          <t>Retail Inventories Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="C503" t="inlineStr"/>
       <c r="D503" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E503" t="inlineStr"/>
-      <c r="F503" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G503" t="inlineStr">
         <is>
           <t>3</t>
@@ -13731,20 +13749,16 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexFEB/07</t>
+          <t>Baker Hughes Oil Rig CountFEB/14</t>
         </is>
       </c>
       <c r="C504" t="inlineStr"/>
-      <c r="D504" t="inlineStr">
-        <is>
-          <t>224.8</t>
-        </is>
-      </c>
+      <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr"/>
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr">
@@ -13756,20 +13770,16 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexFEB/07</t>
+          <t>Baker Hughes Total Rigs CountFEB/14</t>
         </is>
       </c>
       <c r="C505" t="inlineStr"/>
-      <c r="D505" t="inlineStr">
-        <is>
-          <t>584.3</t>
-        </is>
-      </c>
+      <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr"/>
       <c r="F505" t="inlineStr"/>
       <c r="G505" t="inlineStr">
@@ -13781,1566 +13791,28 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B506" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/07</t>
-        </is>
-      </c>
+          <t>Sunday February 16 2025</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr"/>
       <c r="C506" t="inlineStr"/>
-      <c r="D506" t="inlineStr">
-        <is>
-          <t>156.7</t>
-        </is>
-      </c>
+      <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr"/>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMJAN</t>
-        </is>
-      </c>
+          <t>Monday February 17 2025</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr"/>
       <c r="C507" t="inlineStr"/>
-      <c r="D507" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr"/>
-      <c r="F507" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G507" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C508" t="inlineStr"/>
-      <c r="D508" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E508" t="inlineStr"/>
-      <c r="F508" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C509" t="inlineStr"/>
-      <c r="D509" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E509" t="inlineStr"/>
-      <c r="F509" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G509" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C510" t="inlineStr"/>
-      <c r="D510" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E510" t="inlineStr"/>
-      <c r="F510" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G510" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>CPIJAN</t>
-        </is>
-      </c>
-      <c r="C511" t="inlineStr"/>
-      <c r="D511" t="inlineStr">
-        <is>
-          <t>315.61</t>
-        </is>
-      </c>
-      <c r="E511" t="inlineStr"/>
-      <c r="F511" t="inlineStr">
-        <is>
-          <t>317.3</t>
-        </is>
-      </c>
-      <c r="G511" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>CPI s.aJAN</t>
-        </is>
-      </c>
-      <c r="C512" t="inlineStr"/>
-      <c r="D512" t="inlineStr">
-        <is>
-          <t>317.685</t>
-        </is>
-      </c>
-      <c r="E512" t="inlineStr"/>
-      <c r="F512" t="inlineStr">
-        <is>
-          <t>318.2</t>
-        </is>
-      </c>
-      <c r="G512" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Testimony</t>
-        </is>
-      </c>
-      <c r="C513" t="inlineStr"/>
-      <c r="D513" t="inlineStr"/>
-      <c r="E513" t="inlineStr"/>
-      <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C514" t="inlineStr"/>
-      <c r="D514" t="inlineStr">
-        <is>
-          <t>8.664M</t>
-        </is>
-      </c>
-      <c r="E514" t="inlineStr"/>
-      <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr"/>
-      <c r="D515" t="inlineStr">
-        <is>
-          <t>2.233M</t>
-        </is>
-      </c>
-      <c r="E515" t="inlineStr"/>
-      <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C516" t="inlineStr"/>
-      <c r="D516" t="inlineStr">
-        <is>
-          <t>-0.178M</t>
-        </is>
-      </c>
-      <c r="E516" t="inlineStr"/>
-      <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C517" t="inlineStr"/>
-      <c r="D517" t="inlineStr">
-        <is>
-          <t>-0.034M</t>
-        </is>
-      </c>
-      <c r="E517" t="inlineStr"/>
-      <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C518" t="inlineStr"/>
-      <c r="D518" t="inlineStr">
-        <is>
-          <t>-0.186M</t>
-        </is>
-      </c>
-      <c r="E518" t="inlineStr"/>
-      <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C519" t="inlineStr"/>
-      <c r="D519" t="inlineStr">
-        <is>
-          <t>-5.471M</t>
-        </is>
-      </c>
-      <c r="E519" t="inlineStr"/>
-      <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C520" t="inlineStr"/>
-      <c r="D520" t="inlineStr">
-        <is>
-          <t>-0.027M</t>
-        </is>
-      </c>
-      <c r="E520" t="inlineStr"/>
-      <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C521" t="inlineStr"/>
-      <c r="D521" t="inlineStr">
-        <is>
-          <t>0.373M</t>
-        </is>
-      </c>
-      <c r="E521" t="inlineStr"/>
-      <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr"/>
-      <c r="D522" t="inlineStr">
-        <is>
-          <t>0.16M</t>
-        </is>
-      </c>
-      <c r="E522" t="inlineStr"/>
-      <c r="F522" t="inlineStr"/>
-      <c r="G522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C523" t="inlineStr"/>
-      <c r="D523" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E523" t="inlineStr"/>
-      <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C524" t="inlineStr"/>
-      <c r="D524" t="inlineStr"/>
-      <c r="E524" t="inlineStr"/>
-      <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C525" t="inlineStr"/>
-      <c r="D525" t="inlineStr">
-        <is>
-          <t>4.68%</t>
-        </is>
-      </c>
-      <c r="E525" t="inlineStr"/>
-      <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>02:00 PM</t>
-        </is>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementJAN</t>
-        </is>
-      </c>
-      <c r="C526" t="inlineStr"/>
-      <c r="D526" t="inlineStr">
-        <is>
-          <t>$-87B</t>
-        </is>
-      </c>
-      <c r="E526" t="inlineStr"/>
-      <c r="F526" t="inlineStr">
-        <is>
-          <t>$-93.0B</t>
-        </is>
-      </c>
-      <c r="G526" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>Thursday February 13 2025</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr"/>
-      <c r="C527" t="inlineStr"/>
-      <c r="D527" t="inlineStr"/>
-      <c r="E527" t="inlineStr"/>
-      <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr"/>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C528" t="inlineStr"/>
-      <c r="D528" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E528" t="inlineStr"/>
-      <c r="F528" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>Core PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C529" t="inlineStr"/>
-      <c r="D529" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E529" t="inlineStr"/>
-      <c r="F529" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C530" t="inlineStr"/>
-      <c r="D530" t="inlineStr">
-        <is>
-          <t>219K</t>
-        </is>
-      </c>
-      <c r="E530" t="inlineStr"/>
-      <c r="F530" t="inlineStr">
-        <is>
-          <t>215.0K</t>
-        </is>
-      </c>
-      <c r="G530" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/01</t>
-        </is>
-      </c>
-      <c r="C531" t="inlineStr"/>
-      <c r="D531" t="inlineStr">
-        <is>
-          <t>1886K</t>
-        </is>
-      </c>
-      <c r="E531" t="inlineStr"/>
-      <c r="F531" t="inlineStr">
-        <is>
-          <t>1875.0K</t>
-        </is>
-      </c>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>Core PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C532" t="inlineStr"/>
-      <c r="D532" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E532" t="inlineStr"/>
-      <c r="F532" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/08</t>
-        </is>
-      </c>
-      <c r="C533" t="inlineStr"/>
-      <c r="D533" t="inlineStr">
-        <is>
-          <t>216.75K</t>
-        </is>
-      </c>
-      <c r="E533" t="inlineStr"/>
-      <c r="F533" t="inlineStr">
-        <is>
-          <t>216.0K</t>
-        </is>
-      </c>
-      <c r="G533" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>PPIJAN</t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr"/>
-      <c r="D534" t="inlineStr">
-        <is>
-          <t>146.842</t>
-        </is>
-      </c>
-      <c r="E534" t="inlineStr"/>
-      <c r="F534" t="inlineStr">
-        <is>
-          <t>147.2</t>
-        </is>
-      </c>
-      <c r="G534" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
-        </is>
-      </c>
-      <c r="C535" t="inlineStr"/>
-      <c r="D535" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E535" t="inlineStr"/>
-      <c r="F535" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G535" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
-        </is>
-      </c>
-      <c r="C536" t="inlineStr"/>
-      <c r="D536" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E536" t="inlineStr"/>
-      <c r="F536" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C537" t="inlineStr"/>
-      <c r="D537" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E537" t="inlineStr"/>
-      <c r="F537" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C538" t="inlineStr"/>
-      <c r="D538" t="inlineStr">
-        <is>
-          <t>-174Bcf</t>
-        </is>
-      </c>
-      <c r="E538" t="inlineStr"/>
-      <c r="F538" t="inlineStr"/>
-      <c r="G538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr"/>
-      <c r="D539" t="inlineStr"/>
-      <c r="E539" t="inlineStr"/>
-      <c r="F539" t="inlineStr"/>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C540" t="inlineStr"/>
-      <c r="D540" t="inlineStr"/>
-      <c r="E540" t="inlineStr"/>
-      <c r="F540" t="inlineStr"/>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C541" t="inlineStr"/>
-      <c r="D541" t="inlineStr">
-        <is>
-          <t>6.05%</t>
-        </is>
-      </c>
-      <c r="E541" t="inlineStr"/>
-      <c r="F541" t="inlineStr"/>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C542" t="inlineStr"/>
-      <c r="D542" t="inlineStr">
-        <is>
-          <t>6.89%</t>
-        </is>
-      </c>
-      <c r="E542" t="inlineStr"/>
-      <c r="F542" t="inlineStr"/>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr"/>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>4.913%</t>
-        </is>
-      </c>
-      <c r="E543" t="inlineStr"/>
-      <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/12</t>
-        </is>
-      </c>
-      <c r="C544" t="inlineStr"/>
-      <c r="D544" t="inlineStr">
-        <is>
-          <t>$6.81T</t>
-        </is>
-      </c>
-      <c r="E544" t="inlineStr"/>
-      <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr"/>
-      <c r="C545" t="inlineStr"/>
-      <c r="D545" t="inlineStr"/>
-      <c r="E545" t="inlineStr"/>
-      <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr"/>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C546" t="inlineStr"/>
-      <c r="D546" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E546" t="inlineStr"/>
-      <c r="F546" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G546" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C547" t="inlineStr"/>
-      <c r="D547" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E547" t="inlineStr"/>
-      <c r="F547" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C548" t="inlineStr"/>
-      <c r="D548" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E548" t="inlineStr"/>
-      <c r="F548" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJAN</t>
-        </is>
-      </c>
-      <c r="C549" t="inlineStr"/>
-      <c r="D549" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E549" t="inlineStr"/>
-      <c r="F549" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G549" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C550" t="inlineStr"/>
-      <c r="D550" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E550" t="inlineStr"/>
-      <c r="F550" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C551" t="inlineStr"/>
-      <c r="D551" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="E551" t="inlineStr"/>
-      <c r="F551" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C552" t="inlineStr"/>
-      <c r="D552" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E552" t="inlineStr"/>
-      <c r="F552" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C553" t="inlineStr"/>
-      <c r="D553" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E553" t="inlineStr"/>
-      <c r="F553" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="C554" t="inlineStr"/>
-      <c r="D554" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E554" t="inlineStr"/>
-      <c r="F554" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="G554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B555" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C555" t="inlineStr"/>
-      <c r="D555" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E555" t="inlineStr"/>
-      <c r="F555" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G555" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJAN</t>
-        </is>
-      </c>
-      <c r="C556" t="inlineStr"/>
-      <c r="D556" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E556" t="inlineStr"/>
-      <c r="F556" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="G556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C557" t="inlineStr"/>
-      <c r="D557" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E557" t="inlineStr"/>
-      <c r="F557" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C558" t="inlineStr"/>
-      <c r="D558" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E558" t="inlineStr"/>
-      <c r="F558" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C559" t="inlineStr"/>
-      <c r="D559" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E559" t="inlineStr"/>
-      <c r="F559" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="C560" t="inlineStr"/>
-      <c r="D560" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E560" t="inlineStr"/>
-      <c r="F560" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G560" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
-        </is>
-      </c>
-      <c r="C561" t="inlineStr"/>
-      <c r="D561" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E561" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F561" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C562" t="inlineStr"/>
-      <c r="D562" t="inlineStr"/>
-      <c r="E562" t="inlineStr"/>
-      <c r="F562" t="inlineStr"/>
-      <c r="G562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C563" t="inlineStr"/>
-      <c r="D563" t="inlineStr"/>
-      <c r="E563" t="inlineStr"/>
-      <c r="F563" t="inlineStr"/>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr"/>
-      <c r="C564" t="inlineStr"/>
-      <c r="D564" t="inlineStr"/>
-      <c r="E564" t="inlineStr"/>
-      <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr"/>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>Monday February 17 2025</t>
-        </is>
-      </c>
-      <c r="B565" t="inlineStr"/>
-      <c r="C565" t="inlineStr"/>
-      <c r="D565" t="inlineStr"/>
-      <c r="E565" t="inlineStr"/>
-      <c r="F565" t="inlineStr"/>
-      <c r="G565" t="inlineStr"/>
+      <c r="F507" t="inlineStr"/>
+      <c r="G507" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-17.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G552"/>
+  <dimension ref="A1:G545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12215,15 +12215,31 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B448" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Government PayrollsJAN</t>
+        </is>
+      </c>
       <c r="C448" t="inlineStr"/>
-      <c r="D448" t="inlineStr"/>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>33K</t>
+        </is>
+      </c>
       <c r="E448" t="inlineStr"/>
-      <c r="F448" t="inlineStr"/>
-      <c r="G448" t="inlineStr"/>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>25K</t>
+        </is>
+      </c>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -12233,28 +12249,28 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>Manufacturing PayrollsJAN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr"/>
       <c r="D449" t="inlineStr">
         <is>
-          <t>256K</t>
+          <t>-13K</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>170K</t>
+          <t>-2K</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>205K</t>
+          <t>-5K</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -12266,28 +12282,28 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Nonfarm Payrolls PrivateJAN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr"/>
       <c r="D450" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>141K</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>180K</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -12299,58 +12315,42 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMJAN</t>
+          <t>U-6 Unemployment RateJAN</t>
         </is>
       </c>
       <c r="C451" t="inlineStr"/>
       <c r="D451" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E451" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>7.5%</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr"/>
       <c r="F451" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:25 AM</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="C452" t="inlineStr"/>
-      <c r="D452" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E452" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="F452" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+      <c r="D452" t="inlineStr"/>
+      <c r="E452" t="inlineStr"/>
+      <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr">
         <is>
           <t>2</t>
@@ -12360,57 +12360,57 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>Michigan Consumer Sentiment PrelFEB</t>
         </is>
       </c>
       <c r="C453" t="inlineStr"/>
       <c r="D453" t="inlineStr">
         <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="E453" t="inlineStr"/>
+          <t>71.1</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>71.1</t>
+        </is>
+      </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="C454" t="inlineStr"/>
       <c r="D454" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>3.2%</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr"/>
       <c r="F454" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
@@ -12422,24 +12422,28 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Michigan Consumer Expectations PrelFEB</t>
         </is>
       </c>
       <c r="C455" t="inlineStr"/>
       <c r="D455" t="inlineStr">
         <is>
-          <t>33K</t>
-        </is>
-      </c>
-      <c r="E455" t="inlineStr"/>
+          <t>69.3</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>69.5</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
@@ -12451,28 +12455,28 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Michigan Current Conditions PrelFEB</t>
         </is>
       </c>
       <c r="C456" t="inlineStr"/>
       <c r="D456" t="inlineStr">
         <is>
-          <t>-13K</t>
+          <t>74</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>-2K</t>
+          <t>73</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>74.3</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
@@ -12484,28 +12488,24 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Michigan Inflation Expectations PrelFEB</t>
         </is>
       </c>
       <c r="C457" t="inlineStr"/>
       <c r="D457" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>141K</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr"/>
       <c r="F457" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
@@ -12517,24 +12517,28 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>Wholesale Inventories MoMDEC</t>
         </is>
       </c>
       <c r="C458" t="inlineStr"/>
       <c r="D458" t="inlineStr">
         <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="E458" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
@@ -12546,12 +12550,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>09:25 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C459" t="inlineStr"/>
@@ -12567,59 +12571,47 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
       <c r="C460" t="inlineStr"/>
       <c r="D460" t="inlineStr">
         <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E460" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F460" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr"/>
+      <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
       <c r="C461" t="inlineStr"/>
       <c r="D461" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>582</t>
         </is>
       </c>
       <c r="E461" t="inlineStr"/>
-      <c r="F461" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr">
         <is>
           <t>3</t>
@@ -12629,28 +12621,28 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
+          <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
       <c r="C462" t="inlineStr"/>
       <c r="D462" t="inlineStr">
         <is>
-          <t>69.3</t>
+          <t>$-7.49B</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>$12.35B</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>$ 18B</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
@@ -12660,32 +12652,20 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A463" t="inlineStr"/>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>Used Car Prices MoMJAN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr"/>
       <c r="D463" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E463" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="F463" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr"/>
+      <c r="F463" t="inlineStr"/>
       <c r="G463" t="inlineStr">
         <is>
           <t>3</t>
@@ -12693,28 +12673,20 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A464" t="inlineStr"/>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>Used Car Prices YoYJAN</t>
         </is>
       </c>
       <c r="C464" t="inlineStr"/>
       <c r="D464" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E464" t="inlineStr"/>
-      <c r="F464" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr">
         <is>
           <t>3</t>
@@ -12724,101 +12696,65 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoMDEC</t>
-        </is>
-      </c>
+          <t>Saturday February 08 2025</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr"/>
       <c r="C465" t="inlineStr"/>
-      <c r="D465" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E465" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F465" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G465" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D465" t="inlineStr"/>
+      <c r="E465" t="inlineStr"/>
+      <c r="F465" t="inlineStr"/>
+      <c r="G465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B466" t="inlineStr">
-        <is>
-          <t>Fed Kugler Speech</t>
-        </is>
-      </c>
+          <t>Sunday February 09 2025</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr"/>
       <c r="C466" t="inlineStr"/>
       <c r="D466" t="inlineStr"/>
       <c r="E466" t="inlineStr"/>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B467" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
-        </is>
-      </c>
+          <t>Monday February 10 2025</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr"/>
       <c r="C467" t="inlineStr"/>
-      <c r="D467" t="inlineStr">
-        <is>
-          <t>479</t>
-        </is>
-      </c>
+      <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr"/>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>Consumer Inflation ExpectationsJAN</t>
         </is>
       </c>
       <c r="C468" t="inlineStr"/>
       <c r="D468" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="E468" t="inlineStr"/>
-      <c r="F468" t="inlineStr"/>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="G468" t="inlineStr">
         <is>
           <t>3</t>
@@ -12828,30 +12764,22 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C469" t="inlineStr"/>
       <c r="D469" t="inlineStr">
         <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>$12.35B</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr">
-        <is>
-          <t>$ 18B</t>
-        </is>
-      </c>
+          <t>4.22%</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr"/>
+      <c r="F469" t="inlineStr"/>
       <c r="G469" t="inlineStr">
         <is>
           <t>3</t>
@@ -12859,16 +12787,20 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr"/>
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Used Car Prices MoMJAN</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>4.155%</t>
         </is>
       </c>
       <c r="E470" t="inlineStr"/>
@@ -12880,109 +12812,129 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr"/>
-      <c r="B471" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYJAN</t>
-        </is>
-      </c>
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Tuesday February 11 2025</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr"/>
       <c r="C471" t="inlineStr"/>
-      <c r="D471" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr"/>
       <c r="F471" t="inlineStr"/>
-      <c r="G471" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B472" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>NFIB Business Optimism IndexJAN</t>
+        </is>
+      </c>
       <c r="C472" t="inlineStr"/>
-      <c r="D472" t="inlineStr"/>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>105.1</t>
+        </is>
+      </c>
       <c r="E472" t="inlineStr"/>
-      <c r="F472" t="inlineStr"/>
-      <c r="G472" t="inlineStr"/>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B473" t="inlineStr"/>
+          <t>08:50 AM</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Fed Hammack Speech</t>
+        </is>
+      </c>
       <c r="C473" t="inlineStr"/>
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr"/>
-      <c r="G473" t="inlineStr"/>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B474" t="inlineStr"/>
+          <t>08:55 AM</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Redbook YoYFEB/08</t>
+        </is>
+      </c>
       <c r="C474" t="inlineStr"/>
-      <c r="D474" t="inlineStr"/>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>5.7%</t>
+        </is>
+      </c>
       <c r="E474" t="inlineStr"/>
       <c r="F474" t="inlineStr"/>
-      <c r="G474" t="inlineStr"/>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Fed Chair Powell Testimony</t>
         </is>
       </c>
       <c r="C475" t="inlineStr"/>
-      <c r="D475" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr"/>
-      <c r="F475" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Total Household DebtQ4</t>
         </is>
       </c>
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="inlineStr">
         <is>
-          <t>4.22%</t>
+          <t>$17.9T</t>
         </is>
       </c>
       <c r="E476" t="inlineStr"/>
@@ -12996,20 +12948,16 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="C477" t="inlineStr"/>
-      <c r="D477" t="inlineStr">
-        <is>
-          <t>4.155%</t>
-        </is>
-      </c>
+      <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr"/>
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr">
@@ -13021,58 +12969,66 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Tuesday February 11 2025</t>
-        </is>
-      </c>
-      <c r="B478" t="inlineStr"/>
+          <t>01:00 PM</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>3-Year Note Auction</t>
+        </is>
+      </c>
       <c r="C478" t="inlineStr"/>
-      <c r="D478" t="inlineStr"/>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>4.332%</t>
+        </is>
+      </c>
       <c r="E478" t="inlineStr"/>
       <c r="F478" t="inlineStr"/>
-      <c r="G478" t="inlineStr"/>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexJAN</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="C479" t="inlineStr"/>
-      <c r="D479" t="inlineStr">
-        <is>
-          <t>105.1</t>
-        </is>
-      </c>
+      <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr"/>
-      <c r="F479" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
+      <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>08:50 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>API Crude Oil Stock ChangeFEB/07</t>
         </is>
       </c>
       <c r="C480" t="inlineStr"/>
-      <c r="D480" t="inlineStr"/>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>5.025M</t>
+        </is>
+      </c>
       <c r="E480" t="inlineStr"/>
       <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr">
@@ -13084,64 +13040,56 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr">
-        <is>
-          <t>Redbook YoYFEB/08</t>
-        </is>
-      </c>
+          <t>Wednesday February 12 2025</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr"/>
       <c r="C481" t="inlineStr"/>
-      <c r="D481" t="inlineStr">
-        <is>
-          <t>5.7%</t>
-        </is>
-      </c>
+      <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr"/>
       <c r="F481" t="inlineStr"/>
-      <c r="G481" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Testimony</t>
+          <t>MBA 30-Year Mortgage RateFEB/07</t>
         </is>
       </c>
       <c r="C482" t="inlineStr"/>
-      <c r="D482" t="inlineStr"/>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>6.97%</t>
+        </is>
+      </c>
       <c r="E482" t="inlineStr"/>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Total Household DebtQ4</t>
+          <t>MBA Mortgage ApplicationsFEB/07</t>
         </is>
       </c>
       <c r="C483" t="inlineStr"/>
       <c r="D483" t="inlineStr">
         <is>
-          <t>$17.9T</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E483" t="inlineStr"/>
@@ -13155,16 +13103,20 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>MBA Mortgage Market IndexFEB/07</t>
         </is>
       </c>
       <c r="C484" t="inlineStr"/>
-      <c r="D484" t="inlineStr"/>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>224.8</t>
+        </is>
+      </c>
       <c r="E484" t="inlineStr"/>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr">
@@ -13176,18 +13128,18 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>MBA Mortgage Refinance IndexFEB/07</t>
         </is>
       </c>
       <c r="C485" t="inlineStr"/>
       <c r="D485" t="inlineStr">
         <is>
-          <t>4.332%</t>
+          <t>584.3</t>
         </is>
       </c>
       <c r="E485" t="inlineStr"/>
@@ -13201,358 +13153,382 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>MBA Purchase IndexFEB/07</t>
         </is>
       </c>
       <c r="C486" t="inlineStr"/>
-      <c r="D486" t="inlineStr"/>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>156.7</t>
+        </is>
+      </c>
       <c r="E486" t="inlineStr"/>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeFEB/07</t>
+          <t>Core Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="C487" t="inlineStr"/>
       <c r="D487" t="inlineStr">
         <is>
-          <t>5.025M</t>
-        </is>
-      </c>
-      <c r="E487" t="inlineStr"/>
-      <c r="F487" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Wednesday February 12 2025</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Core Inflation Rate YoYJAN</t>
+        </is>
+      </c>
       <c r="C488" t="inlineStr"/>
-      <c r="D488" t="inlineStr"/>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="E488" t="inlineStr"/>
-      <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr"/>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateFEB/07</t>
+          <t>Inflation Rate MoMJAN</t>
         </is>
       </c>
       <c r="C489" t="inlineStr"/>
       <c r="D489" t="inlineStr">
         <is>
-          <t>6.97%</t>
-        </is>
-      </c>
-      <c r="E489" t="inlineStr"/>
-      <c r="F489" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsFEB/07</t>
+          <t>Inflation Rate YoYJAN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr"/>
       <c r="D490" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="E490" t="inlineStr"/>
-      <c r="F490" t="inlineStr"/>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>2.9%</t>
+        </is>
+      </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexFEB/07</t>
+          <t>CPIJAN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr"/>
       <c r="D491" t="inlineStr">
         <is>
-          <t>224.8</t>
+          <t>315.61</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
-      <c r="F491" t="inlineStr"/>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>317.3</t>
+        </is>
+      </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexFEB/07</t>
+          <t>CPI s.aJAN</t>
         </is>
       </c>
       <c r="C492" t="inlineStr"/>
       <c r="D492" t="inlineStr">
         <is>
-          <t>584.3</t>
+          <t>317.685</t>
         </is>
       </c>
       <c r="E492" t="inlineStr"/>
-      <c r="F492" t="inlineStr"/>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>318.2</t>
+        </is>
+      </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexFEB/07</t>
+          <t>EIA Crude Oil Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C493" t="inlineStr"/>
       <c r="D493" t="inlineStr">
         <is>
-          <t>156.7</t>
+          <t>8.664M</t>
         </is>
       </c>
       <c r="E493" t="inlineStr"/>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMJAN</t>
+          <t>EIA Gasoline Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C494" t="inlineStr"/>
       <c r="D494" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.233M</t>
         </is>
       </c>
       <c r="E494" t="inlineStr"/>
-      <c r="F494" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F494" t="inlineStr"/>
       <c r="G494" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYJAN</t>
+          <t>EIA Crude Oil Imports ChangeFEB/07</t>
         </is>
       </c>
       <c r="C495" t="inlineStr"/>
       <c r="D495" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>-0.178M</t>
         </is>
       </c>
       <c r="E495" t="inlineStr"/>
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="F495" t="inlineStr"/>
       <c r="G495" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMJAN</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.034M</t>
         </is>
       </c>
       <c r="E496" t="inlineStr"/>
-      <c r="F496" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYJAN</t>
+          <t>EIA Distillate Fuel Production ChangeFEB/07</t>
         </is>
       </c>
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="inlineStr">
         <is>
-          <t>2.9%</t>
+          <t>-0.186M</t>
         </is>
       </c>
       <c r="E497" t="inlineStr"/>
-      <c r="F497" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
+      <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>CPIJAN</t>
+          <t>EIA Distillate Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C498" t="inlineStr"/>
       <c r="D498" t="inlineStr">
         <is>
-          <t>315.61</t>
+          <t>-5.471M</t>
         </is>
       </c>
       <c r="E498" t="inlineStr"/>
-      <c r="F498" t="inlineStr">
-        <is>
-          <t>317.3</t>
-        </is>
-      </c>
+      <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>CPI s.aJAN</t>
+          <t>EIA Gasoline Production ChangeFEB/07</t>
         </is>
       </c>
       <c r="C499" t="inlineStr"/>
       <c r="D499" t="inlineStr">
         <is>
-          <t>317.685</t>
+          <t>-0.027M</t>
         </is>
       </c>
       <c r="E499" t="inlineStr"/>
-      <c r="F499" t="inlineStr">
-        <is>
-          <t>318.2</t>
-        </is>
-      </c>
+      <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -13564,20 +13540,20 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/07</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C500" t="inlineStr"/>
       <c r="D500" t="inlineStr">
         <is>
-          <t>8.664M</t>
+          <t>0.373M</t>
         </is>
       </c>
       <c r="E500" t="inlineStr"/>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -13589,38 +13565,38 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeFEB/07</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
         </is>
       </c>
       <c r="C501" t="inlineStr"/>
       <c r="D501" t="inlineStr">
         <is>
-          <t>2.233M</t>
+          <t>0.16M</t>
         </is>
       </c>
       <c r="E501" t="inlineStr"/>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeFEB/07</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C502" t="inlineStr"/>
       <c r="D502" t="inlineStr">
         <is>
-          <t>-0.178M</t>
+          <t>4.205%</t>
         </is>
       </c>
       <c r="E502" t="inlineStr"/>
@@ -13634,43 +13610,39 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/07</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C503" t="inlineStr"/>
-      <c r="D503" t="inlineStr">
-        <is>
-          <t>-0.034M</t>
-        </is>
-      </c>
+      <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr"/>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/07</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C504" t="inlineStr"/>
       <c r="D504" t="inlineStr">
         <is>
-          <t>-0.186M</t>
+          <t>4.68%</t>
         </is>
       </c>
       <c r="E504" t="inlineStr"/>
@@ -13684,143 +13656,147 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeFEB/07</t>
+          <t>Monthly Budget StatementJAN</t>
         </is>
       </c>
       <c r="C505" t="inlineStr"/>
       <c r="D505" t="inlineStr">
         <is>
-          <t>-5.471M</t>
+          <t>$-87B</t>
         </is>
       </c>
       <c r="E505" t="inlineStr"/>
-      <c r="F505" t="inlineStr"/>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>$-93.0B</t>
+        </is>
+      </c>
       <c r="G505" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>05:05 PM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeFEB/07</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="C506" t="inlineStr"/>
-      <c r="D506" t="inlineStr">
-        <is>
-          <t>-0.027M</t>
-        </is>
-      </c>
+      <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr"/>
       <c r="F506" t="inlineStr"/>
       <c r="G506" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
+          <t>Thursday February 13 2025</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr"/>
       <c r="C507" t="inlineStr"/>
-      <c r="D507" t="inlineStr">
-        <is>
-          <t>0.373M</t>
-        </is>
-      </c>
+      <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr"/>
       <c r="F507" t="inlineStr"/>
-      <c r="G507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="C508" t="inlineStr"/>
       <c r="D508" t="inlineStr">
         <is>
-          <t>0.16M</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E508" t="inlineStr"/>
-      <c r="F508" t="inlineStr"/>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G508" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Core PPI MoMJAN</t>
         </is>
       </c>
       <c r="C509" t="inlineStr"/>
       <c r="D509" t="inlineStr">
         <is>
-          <t>4.205%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E509" t="inlineStr"/>
-      <c r="F509" t="inlineStr"/>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G509" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Initial Jobless ClaimsFEB/08</t>
         </is>
       </c>
       <c r="C510" t="inlineStr"/>
-      <c r="D510" t="inlineStr"/>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>219K</t>
+        </is>
+      </c>
       <c r="E510" t="inlineStr"/>
-      <c r="F510" t="inlineStr"/>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>215.0K</t>
+        </is>
+      </c>
       <c r="G510" t="inlineStr">
         <is>
           <t>2</t>
@@ -13830,22 +13806,26 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>10-Year Note Auction</t>
+          <t>Continuing Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="C511" t="inlineStr"/>
       <c r="D511" t="inlineStr">
         <is>
-          <t>4.68%</t>
+          <t>1886K</t>
         </is>
       </c>
       <c r="E511" t="inlineStr"/>
-      <c r="F511" t="inlineStr"/>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>1875.0K</t>
+        </is>
+      </c>
       <c r="G511" t="inlineStr">
         <is>
           <t>3</t>
@@ -13855,65 +13835,89 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementJAN</t>
+          <t>Core PPI YoYJAN</t>
         </is>
       </c>
       <c r="C512" t="inlineStr"/>
       <c r="D512" t="inlineStr">
         <is>
-          <t>$-87B</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="E512" t="inlineStr"/>
       <c r="F512" t="inlineStr">
         <is>
-          <t>$-93.0B</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>05:05 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Jobless Claims 4-week AverageFEB/08</t>
         </is>
       </c>
       <c r="C513" t="inlineStr"/>
-      <c r="D513" t="inlineStr"/>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>216.75K</t>
+        </is>
+      </c>
       <c r="E513" t="inlineStr"/>
-      <c r="F513" t="inlineStr"/>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>216.0K</t>
+        </is>
+      </c>
       <c r="G513" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Thursday February 13 2025</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>PPIJAN</t>
+        </is>
+      </c>
       <c r="C514" t="inlineStr"/>
-      <c r="D514" t="inlineStr"/>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>146.842</t>
+        </is>
+      </c>
       <c r="E514" t="inlineStr"/>
-      <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr"/>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>147.2</t>
+        </is>
+      </c>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -13923,24 +13927,24 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>PPI MoMJAN</t>
+          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
         </is>
       </c>
       <c r="C515" t="inlineStr"/>
       <c r="D515" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E515" t="inlineStr"/>
       <c r="F515" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -13952,24 +13956,24 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Core PPI MoMJAN</t>
+          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
         </is>
       </c>
       <c r="C516" t="inlineStr"/>
       <c r="D516" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E516" t="inlineStr"/>
       <c r="F516" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G516" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -13981,50 +13985,46 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsFEB/08</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="C517" t="inlineStr"/>
       <c r="D517" t="inlineStr">
         <is>
-          <t>219K</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E517" t="inlineStr"/>
       <c r="F517" t="inlineStr">
         <is>
-          <t>215.0K</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsFEB/01</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C518" t="inlineStr"/>
       <c r="D518" t="inlineStr">
         <is>
-          <t>1886K</t>
+          <t>-174Bcf</t>
         </is>
       </c>
       <c r="E518" t="inlineStr"/>
-      <c r="F518" t="inlineStr">
-        <is>
-          <t>1875.0K</t>
-        </is>
-      </c>
+      <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr">
         <is>
           <t>3</t>
@@ -14034,26 +14034,18 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Core PPI YoYJAN</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C519" t="inlineStr"/>
-      <c r="D519" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr"/>
-      <c r="F519" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="F519" t="inlineStr"/>
       <c r="G519" t="inlineStr">
         <is>
           <t>3</t>
@@ -14063,26 +14055,18 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageFEB/08</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C520" t="inlineStr"/>
-      <c r="D520" t="inlineStr">
-        <is>
-          <t>216.75K</t>
-        </is>
-      </c>
+      <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr"/>
-      <c r="F520" t="inlineStr">
-        <is>
-          <t>216.0K</t>
-        </is>
-      </c>
+      <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr">
         <is>
           <t>3</t>
@@ -14092,26 +14076,22 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>PPIJAN</t>
+          <t>15-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C521" t="inlineStr"/>
       <c r="D521" t="inlineStr">
         <is>
-          <t>146.842</t>
+          <t>6.05%</t>
         </is>
       </c>
       <c r="E521" t="inlineStr"/>
-      <c r="F521" t="inlineStr">
-        <is>
-          <t>147.2</t>
-        </is>
-      </c>
+      <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr">
         <is>
           <t>3</t>
@@ -14121,26 +14101,22 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
+          <t>30-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C522" t="inlineStr"/>
       <c r="D522" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>6.89%</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
-      <c r="F522" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr">
         <is>
           <t>3</t>
@@ -14150,26 +14126,22 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C523" t="inlineStr"/>
       <c r="D523" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>4.913%</t>
         </is>
       </c>
       <c r="E523" t="inlineStr"/>
-      <c r="F523" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="F523" t="inlineStr"/>
       <c r="G523" t="inlineStr">
         <is>
           <t>3</t>
@@ -14179,26 +14151,22 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>PPI YoYJAN</t>
+          <t>Fed Balance SheetFEB/12</t>
         </is>
       </c>
       <c r="C524" t="inlineStr"/>
       <c r="D524" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>$6.81T</t>
         </is>
       </c>
       <c r="E524" t="inlineStr"/>
-      <c r="F524" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr">
         <is>
           <t>3</t>
@@ -14208,164 +14176,184 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
-        </is>
-      </c>
+          <t>Friday February 14 2025</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr"/>
       <c r="C525" t="inlineStr"/>
-      <c r="D525" t="inlineStr">
-        <is>
-          <t>-174Bcf</t>
-        </is>
-      </c>
+      <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr"/>
       <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Retail Sales MoMJAN</t>
         </is>
       </c>
       <c r="C526" t="inlineStr"/>
-      <c r="D526" t="inlineStr"/>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E526" t="inlineStr"/>
-      <c r="F526" t="inlineStr"/>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G526" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Export Prices MoMJAN</t>
         </is>
       </c>
       <c r="C527" t="inlineStr"/>
-      <c r="D527" t="inlineStr"/>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E527" t="inlineStr"/>
-      <c r="F527" t="inlineStr"/>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateFEB/13</t>
+          <t>Import Prices MoMJAN</t>
         </is>
       </c>
       <c r="C528" t="inlineStr"/>
       <c r="D528" t="inlineStr">
         <is>
-          <t>6.05%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E528" t="inlineStr"/>
-      <c r="F528" t="inlineStr"/>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateFEB/13</t>
+          <t>Retail Sales Control Group MoMJAN</t>
         </is>
       </c>
       <c r="C529" t="inlineStr"/>
       <c r="D529" t="inlineStr">
         <is>
-          <t>6.89%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
-      <c r="F529" t="inlineStr"/>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>30-Year Bond Auction</t>
+          <t>Retail Sales Ex Autos MoMJAN</t>
         </is>
       </c>
       <c r="C530" t="inlineStr"/>
       <c r="D530" t="inlineStr">
         <is>
-          <t>4.913%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E530" t="inlineStr"/>
-      <c r="F530" t="inlineStr"/>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G530" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/12</t>
+          <t>Export Prices YoYJAN</t>
         </is>
       </c>
       <c r="C531" t="inlineStr"/>
       <c r="D531" t="inlineStr">
         <is>
-          <t>$6.81T</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="E531" t="inlineStr"/>
-      <c r="F531" t="inlineStr"/>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="G531" t="inlineStr">
         <is>
           <t>3</t>
@@ -14375,15 +14363,31 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B532" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Import Prices YoYJAN</t>
+        </is>
+      </c>
       <c r="C532" t="inlineStr"/>
-      <c r="D532" t="inlineStr"/>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="E532" t="inlineStr"/>
-      <c r="F532" t="inlineStr"/>
-      <c r="G532" t="inlineStr"/>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -14393,24 +14397,24 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Retail Sales MoMJAN</t>
+          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
         </is>
       </c>
       <c r="C533" t="inlineStr"/>
       <c r="D533" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
       <c r="F533" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -14422,42 +14426,42 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Export Prices MoMJAN</t>
+          <t>Retail Sales YoYJAN</t>
         </is>
       </c>
       <c r="C534" t="inlineStr"/>
       <c r="D534" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
       <c r="F534" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Import Prices MoMJAN</t>
+          <t>Industrial Production MoMJAN</t>
         </is>
       </c>
       <c r="C535" t="inlineStr"/>
       <c r="D535" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E535" t="inlineStr"/>
@@ -14475,82 +14479,82 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMJAN</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="C536" t="inlineStr"/>
       <c r="D536" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>77.6%</t>
         </is>
       </c>
       <c r="E536" t="inlineStr"/>
       <c r="F536" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>77.4%</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
+          <t>Industrial Production YoYJAN</t>
         </is>
       </c>
       <c r="C537" t="inlineStr"/>
       <c r="D537" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E537" t="inlineStr"/>
       <c r="F537" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="G537" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Export Prices YoYJAN</t>
+          <t>Manufacturing Production MoMJAN</t>
         </is>
       </c>
       <c r="C538" t="inlineStr"/>
       <c r="D538" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="E538" t="inlineStr"/>
       <c r="F538" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G538" t="inlineStr">
@@ -14562,24 +14566,24 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Import Prices YoYJAN</t>
+          <t>Manufacturing Production YoYJAN</t>
         </is>
       </c>
       <c r="C539" t="inlineStr"/>
       <c r="D539" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E539" t="inlineStr"/>
       <c r="F539" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
@@ -14591,53 +14595,57 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+          <t>Business Inventories MoMDEC</t>
         </is>
       </c>
       <c r="C540" t="inlineStr"/>
       <c r="D540" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E540" t="inlineStr"/>
       <c r="F540" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G540" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Retail Sales YoYJAN</t>
+          <t>Retail Inventories Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="C541" t="inlineStr"/>
       <c r="D541" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E541" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G541" t="inlineStr">
@@ -14649,55 +14657,39 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Industrial Production MoMJAN</t>
+          <t>Baker Hughes Oil Rig CountFEB/14</t>
         </is>
       </c>
       <c r="C542" t="inlineStr"/>
-      <c r="D542" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="D542" t="inlineStr"/>
       <c r="E542" t="inlineStr"/>
-      <c r="F542" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Capacity UtilizationJAN</t>
+          <t>Baker Hughes Total Rigs CountFEB/14</t>
         </is>
       </c>
       <c r="C543" t="inlineStr"/>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
+      <c r="D543" t="inlineStr"/>
       <c r="E543" t="inlineStr"/>
-      <c r="F543" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
+      <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr">
         <is>
           <t>3</t>
@@ -14707,219 +14699,28 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJAN</t>
-        </is>
-      </c>
+          <t>Sunday February 16 2025</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr"/>
       <c r="C544" t="inlineStr"/>
-      <c r="D544" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr"/>
-      <c r="F544" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F544" t="inlineStr"/>
+      <c r="G544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJAN</t>
-        </is>
-      </c>
+          <t>Monday February 17 2025</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr"/>
       <c r="C545" t="inlineStr"/>
-      <c r="D545" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="D545" t="inlineStr"/>
       <c r="E545" t="inlineStr"/>
-      <c r="F545" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C546" t="inlineStr"/>
-      <c r="D546" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E546" t="inlineStr"/>
-      <c r="F546" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="C547" t="inlineStr"/>
-      <c r="D547" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E547" t="inlineStr"/>
-      <c r="F547" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G547" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
-        </is>
-      </c>
-      <c r="C548" t="inlineStr"/>
-      <c r="D548" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E548" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F548" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C549" t="inlineStr"/>
-      <c r="D549" t="inlineStr"/>
-      <c r="E549" t="inlineStr"/>
-      <c r="F549" t="inlineStr"/>
-      <c r="G549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C550" t="inlineStr"/>
-      <c r="D550" t="inlineStr"/>
-      <c r="E550" t="inlineStr"/>
-      <c r="F550" t="inlineStr"/>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B551" t="inlineStr"/>
-      <c r="C551" t="inlineStr"/>
-      <c r="D551" t="inlineStr"/>
-      <c r="E551" t="inlineStr"/>
-      <c r="F551" t="inlineStr"/>
-      <c r="G551" t="inlineStr"/>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>Monday February 17 2025</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr"/>
-      <c r="C552" t="inlineStr"/>
-      <c r="D552" t="inlineStr"/>
-      <c r="E552" t="inlineStr"/>
-      <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr"/>
+      <c r="F545" t="inlineStr"/>
+      <c r="G545" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-17.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-17.xlsx
@@ -13871,7 +13871,11 @@
           <t>Baker Hughes Oil Rig CountFEB/07</t>
         </is>
       </c>
-      <c r="C506" t="inlineStr"/>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
       <c r="D506" t="inlineStr">
         <is>
           <t>479</t>
@@ -13896,7 +13900,11 @@
           <t>Baker Hughes Total Rigs CountFEB/07</t>
         </is>
       </c>
-      <c r="C507" t="inlineStr"/>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
       <c r="D507" t="inlineStr">
         <is>
           <t>582</t>
@@ -16010,7 +16018,11 @@
         </is>
       </c>
       <c r="C588" t="inlineStr"/>
-      <c r="D588" t="inlineStr"/>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
       <c r="E588" t="inlineStr"/>
       <c r="F588" t="inlineStr"/>
       <c r="G588" t="inlineStr">
@@ -16031,7 +16043,11 @@
         </is>
       </c>
       <c r="C589" t="inlineStr"/>
-      <c r="D589" t="inlineStr"/>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
       <c r="E589" t="inlineStr"/>
       <c r="F589" t="inlineStr"/>
       <c r="G589" t="inlineStr">

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-17.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-17.xlsx
@@ -13929,7 +13929,11 @@
           <t>Consumer Credit ChangeDEC</t>
         </is>
       </c>
-      <c r="C508" t="inlineStr"/>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>$40.85B</t>
+        </is>
+      </c>
       <c r="D508" t="inlineStr">
         <is>
           <t>$-7.49B</t>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-17.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-02-17.xlsx
@@ -13936,7 +13936,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>$-7.49B</t>
+          <t>$-5.37B</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
